--- a/Course meterial/DatabaseTraining.xlsx
+++ b/Course meterial/DatabaseTraining.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>User</t>
   </si>
@@ -201,17 +201,20 @@
     <t>BankId</t>
   </si>
   <si>
-    <t>MySQL Download</t>
-  </si>
-  <si>
-    <t>https://dev.mysql.com/downloads/mysql/8.0.html</t>
+    <t>MySQL Installer Web Community</t>
+  </si>
+  <si>
+    <t>Install via</t>
+  </si>
+  <si>
+    <t>Look up youtube videos for:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +226,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,9 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,17 +558,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -564,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>

--- a/Course meterial/DatabaseTraining.xlsx
+++ b/Course meterial/DatabaseTraining.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="2" r:id="rId1"/>
-    <sheet name="DBNormalization" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="DBNormalization" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>User</t>
   </si>
@@ -208,13 +209,187 @@
   </si>
   <si>
     <t>Look up youtube videos for:</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id` bigint NOT NULL AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `email` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `firstName` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `middleName` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `lastName` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `username` varchar(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `password` varchar(120) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `phone` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `guardian` bit(1) NOT NULL DEFAULT b'0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `enabled` bit(1) NOT NULL DEFAULT b'1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`id`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UNIQUE KEY `UK_username` (`username`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UNIQUE KEY `UK_email` (`email`)</t>
+  </si>
+  <si>
+    <t>dateofbirth date DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>profilepicurl varchar(1024) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>isdcode varchar(8) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>address1 varchar(255) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>address2 varchar(255) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>countryid int DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>country_master</t>
+  </si>
+  <si>
+    <t>countryid int</t>
+  </si>
+  <si>
+    <t>countryid int PK Auto Increment</t>
+  </si>
+  <si>
+    <t>countryname VARCHAR(32) NOTNULL unique</t>
+  </si>
+  <si>
+    <t>fK countryid -&gt; countrymaster</t>
+  </si>
+  <si>
+    <t>Teacher &gt;&gt; PersonalProfile</t>
+  </si>
+  <si>
+    <t>Teacher &gt;&gt; ProfessionalProfile</t>
+  </si>
+  <si>
+    <t>Teacher_professional</t>
+  </si>
+  <si>
+    <t>teacherid bigint NOTNULL PK</t>
+  </si>
+  <si>
+    <t>resumeurl varchar(1024) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>ExperienceYears int notnull default zero</t>
+  </si>
+  <si>
+    <t>Institution varchar(1024) NULL,</t>
+  </si>
+  <si>
+    <t>BoardorUniversity varchar(1024) NULL,</t>
+  </si>
+  <si>
+    <t>LanguageofMedium varchar(1024) NULL,</t>
+  </si>
+  <si>
+    <t>subjecttaught varchar(1024) NULL</t>
+  </si>
+  <si>
+    <t>FK teacherid -&gt; user</t>
+  </si>
+  <si>
+    <t>Teacher &gt;&gt; FinancialProfile</t>
+  </si>
+  <si>
+    <t>Teacher_Financial</t>
+  </si>
+  <si>
+    <t>currency_master</t>
+  </si>
+  <si>
+    <t>currency_id int PK Auto Increment</t>
+  </si>
+  <si>
+    <t>Currency  VARCHAR(32) NOTNULL</t>
+  </si>
+  <si>
+    <t>currency_symbol varchar(6) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>FK countryid -&gt; country_master</t>
+  </si>
+  <si>
+    <t>currencyid</t>
+  </si>
+  <si>
+    <t>FK currencyid -&gt; currency_master</t>
+  </si>
+  <si>
+    <t>Bank_branch_master</t>
+  </si>
+  <si>
+    <t>FK bank_id -&gt; BankMaster</t>
+  </si>
+  <si>
+    <t>BankMaster</t>
+  </si>
+  <si>
+    <t>branchId int Autoincrement NOT NULL PK</t>
+  </si>
+  <si>
+    <t>branchName varchar(255) NOT NULL</t>
+  </si>
+  <si>
+    <t>IFSCorBSB varchar(32) NOT NULL</t>
+  </si>
+  <si>
+    <t>bank_id int NOT NULL</t>
+  </si>
+  <si>
+    <t>bank_id int Autoincrement NOT NULL PK</t>
+  </si>
+  <si>
+    <t>Bank_Name varchar(255) NOT NULL</t>
+  </si>
+  <si>
+    <t>Bankid int</t>
+  </si>
+  <si>
+    <t>branchId int</t>
+  </si>
+  <si>
+    <t>Accountno varchar(255)</t>
+  </si>
+  <si>
+    <t>accountname varchar(512)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +413,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -260,10 +456,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -578,10 +778,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="T2" sqref="T2:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Course meterial/DatabaseTraining.xlsx
+++ b/Course meterial/DatabaseTraining.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="DBNormalization" sheetId="1" r:id="rId3"/>
+    <sheet name="NormalizedDesign" sheetId="4" r:id="rId3"/>
+    <sheet name="DBNormalization" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
   <si>
     <t>User</t>
   </si>
@@ -383,13 +384,61 @@
   </si>
   <si>
     <t>accountname varchar(512)</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>not null, auto increment</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>default null</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>PK, FK-&gt;user.userid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +477,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -456,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,6 +521,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -780,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,6 +1087,223 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y18"/>
   <sheetViews>

--- a/Course meterial/DatabaseTraining.xlsx
+++ b/Course meterial/DatabaseTraining.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>User</t>
   </si>
@@ -432,6 +432,57 @@
   </si>
   <si>
     <t>PK, FK-&gt;user.userid</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>user_role</t>
+  </si>
+  <si>
+    <t>PK, FK-&gt;user.user_id</t>
+  </si>
+  <si>
+    <t>PK, FK-&gt;role.role_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>teachername</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>isd_code</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address_line1</t>
+  </si>
+  <si>
+    <t>varchar(1023)</t>
+  </si>
+  <si>
+    <t>address_line2</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>FK-&gt;user.username</t>
   </si>
 </sst>
 </file>
@@ -500,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -508,12 +559,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,10 +707,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1088,215 +1295,417 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F14" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C21" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="C22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
